--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5074 L5702 L597A L5712/L597A/FT_L5074 L597A.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5074 L5702 L597A L5712/L597A/FT_L5074 L597A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5074 L5702 L597A L5712\L597A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A122638-A8B3-421A-8A86-61D0A752CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D1FD6B-7676-4092-8A01-7D915F051393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>cu31780002</t>
-  </si>
-  <si>
     <t>5-功能規格書</t>
   </si>
   <si>
@@ -139,96 +136,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[02,03,12]未入帳資料才顯示:[待處理]/[未入帳]會逐一更新交易檔的交易別狀態為[待處理]/[未入帳];[整批入帳]則會逐一做暫收入帳;
-[18]一般債權檢核成功資料且已入專戶才顯示:[整批暫收解入]會逐一做暫收解入新增未入帳交易檔.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustMain.CustName</t>
   </si>
   <si>
     <t>空白</t>
   </si>
   <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.TxAmt</t>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.ApprAmt</t>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.ReturnAmt</t>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為AcReceivable.TitaTxtNo;
-其餘則為NegTran.TitaTxtNo</t>
-  </si>
-  <si>
-    <t>[查詢選項]=[13,14,15,18]時為NegAp02.CustId;
-其餘則為CustMain.CustId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11]時為CustMain.CustNo;
-[查詢選項]=[13,14,15,18]時為NegAppr02.CustNo;
-其餘則為NegTran.CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11]時為AcReceivable.FacmNo;
-[查詢選項]=[13,14,15,18]時為0;
-其餘則為NegTran.CaseSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為空白;
-其餘則為NegTran.TxKind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[查詢選項]=[02,03,12]時才顯示,其餘為空白</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[18]時顯示暫收解入;
-[查詢選項]=[02,03,12]時顯示入帳還款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供執行入帳還款/暫收解入作業，連結至【L5702暫收入帳】/【L5712暫收解入】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[輸出按鈕]入帳還款/暫收解入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11]時為0;
-[查詢選項]=[13,14,15,18]時為NegAppr02.AcDate
-其餘則為NegTran.AcDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11]時為AcReceivable.OpenAcDate;
-[查詢選項]=[13,14,15,18]時為NegAppr02.EntryDate
-其餘則為NegTran.EntryDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.RepayDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為[轉入溢收金額(NegTran.OverAmt)] – [溢收抵繳金額(NegTran.OverRepayAmt)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.RepayPeriod</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -238,27 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.ShouldPayPeriod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.DueAmt*[應還期數]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11,13,14,15,18]時為0;
-其餘則為NegTran.AccuOverAmt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[查詢選項]=[11]時為AcReceivable.RvAmt起帳總額;
-[查詢選項]=[13,14,15,18]時為0;
-其餘則為NegTran.SklShareAmt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>由入口交易【L5074債務協商作業－應處理清單】選擇[入帳還款]後連動【L597A債務協商作業－整批處理】,再點[入帳還款]進入</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -382,14 +275,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.2.docx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ready</t>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.2.docx</t>
+    <t>[02,03,12]未入帳資料才顯示:[待處理]/[未入帳]會逐一更新交易檔的交易別狀態為[待處理]/[未入帳];[整批入帳]則會逐一做暫收入帳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[13,14,15]時為NegAp02.CustId;
+其餘則為CustMain.CustId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11]時為CustMain.CustNo;
+[查詢選項]=[13,14,15]時為NegAppr02.CustNo;
+其餘則為NegTran.CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11]時為AcReceivable.FacmNo;
+[查詢選項]=[13,14,15]時為0;
+其餘則為NegTran.CaseSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為空白;
+其餘則為NegTran.TxKind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11]時為0;
+[查詢選項]=[13,14,15]時為NegAppr02.AcDate
+其餘則為NegTran.AcDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11]時為AcReceivable.OpenAcDate;
+[查詢選項]=[13,14,15]時為NegAppr02.EntryDate
+其餘則為NegTran.EntryDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.RepayDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.TxAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為[轉入溢收金額(NegTran.OverAmt)] – [溢收抵繳金額(NegTran.OverRepayAmt)]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.RepayPeriod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.ShouldPayPeriod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.DueAmt*[應還期數]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.AccuOverAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11]時為AcReceivable.RvAmt起帳總額;
+[查詢選項]=[13,14,15]時為0;
+其餘則為NegTran.SklShareAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.ApprAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為0;
+其餘則為NegTran.ReturnAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[11,13,14,15]時為AcReceivable.TitaTxtNo;
+其餘則為NegTran.TitaTxtNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.67.docx</t>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.67.docx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu31780005</t>
+  </si>
+  <si>
+    <t>[輸出按鈕]入帳還款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[查詢選項]=[02,03,12]時顯示入帳還款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供執行入帳還款作業，連結至【L5702暫收入帳】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -932,7 +934,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -990,42 +992,42 @@
         <v>11</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
@@ -1034,42 +1036,42 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="11" t="s">
@@ -1079,42 +1081,42 @@
         <v>13</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="11" t="s">
@@ -1124,42 +1126,42 @@
         <v>13</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="11" t="s">
@@ -1169,42 +1171,42 @@
         <v>13</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="11" t="s">
@@ -1214,42 +1216,42 @@
         <v>13</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="11" t="s">
@@ -1259,42 +1261,42 @@
         <v>13</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="25">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="11" t="s">
@@ -1304,45 +1306,45 @@
         <v>13</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>12</v>
@@ -1351,45 +1353,45 @@
         <v>13</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>12</v>
@@ -1398,45 +1400,45 @@
         <v>13</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="10" customFormat="1" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>12</v>
@@ -1445,47 +1447,47 @@
         <v>13</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="10" customFormat="1" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>12</v>
@@ -1494,47 +1496,47 @@
         <v>13</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>12</v>
@@ -1543,45 +1545,45 @@
         <v>13</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>12</v>
@@ -1590,45 +1592,45 @@
         <v>13</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>12</v>
@@ -1637,45 +1639,45 @@
         <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>12</v>
@@ -1684,45 +1686,45 @@
         <v>13</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>12</v>
@@ -1731,45 +1733,45 @@
         <v>13</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>12</v>
@@ -1778,45 +1780,45 @@
         <v>13</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>12</v>
@@ -1825,45 +1827,45 @@
         <v>13</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>12</v>
@@ -1872,45 +1874,45 @@
         <v>13</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>12</v>
@@ -1919,45 +1921,45 @@
         <v>13</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q21" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>12</v>
@@ -1966,45 +1968,45 @@
         <v>13</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>12</v>
@@ -2013,45 +2015,45 @@
         <v>13</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>12</v>
@@ -2060,45 +2062,45 @@
         <v>13</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>12</v>
@@ -2107,45 +2109,45 @@
         <v>13</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>12</v>
@@ -2154,45 +2156,45 @@
         <v>13</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>12</v>
@@ -2201,45 +2203,45 @@
         <v>13</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>12</v>
@@ -2248,45 +2250,45 @@
         <v>13</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="10" customFormat="1" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="21" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>12</v>
@@ -2295,48 +2297,48 @@
         <v>13</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="25">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="64.8" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="H30" s="19" t="s">
         <v>12</v>
       </c>
@@ -2344,24 +2346,24 @@
         <v>13</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="26">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
   </sheetData>
